--- a/projeto/resultados.xlsx
+++ b/projeto/resultados.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Entradas" sheetId="1" r:id="rId1"/>
     <sheet name="Estados" sheetId="2" r:id="rId2"/>
     <sheet name="Resultados" sheetId="3" r:id="rId3"/>
+    <sheet name="m(F_processo)" sheetId="4" r:id="rId4"/>
+    <sheet name="Variação com F_processo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="222">
   <si>
     <t>Temperatura [ºC]</t>
   </si>
@@ -118,6 +120,570 @@
   </si>
   <si>
     <t>25.76</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>25.14</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>24.63</t>
+  </si>
+  <si>
+    <t>27.94</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>24.12</t>
+  </si>
+  <si>
+    <t>27.99</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>23.62</t>
+  </si>
+  <si>
+    <t>28.03</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>23.11</t>
+  </si>
+  <si>
+    <t>28.08</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>22.60</t>
+  </si>
+  <si>
+    <t>28.12</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>22.09</t>
+  </si>
+  <si>
+    <t>28.17</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>21.59</t>
+  </si>
+  <si>
+    <t>28.21</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>21.08</t>
+  </si>
+  <si>
+    <t>28.26</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>5.55</t>
+  </si>
+  <si>
+    <t>5.84</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>20.57</t>
+  </si>
+  <si>
+    <t>28.30</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>F_processo</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>ΔT1</t>
+  </si>
+  <si>
+    <t>ΔT2</t>
+  </si>
+  <si>
+    <t>ΔTm</t>
+  </si>
+  <si>
+    <t>Tcond</t>
+  </si>
+  <si>
+    <t>Qcond</t>
+  </si>
+  <si>
+    <t>21.640</t>
+  </si>
+  <si>
+    <t>11.140</t>
+  </si>
+  <si>
+    <t>15.813</t>
+  </si>
+  <si>
+    <t>323.790</t>
+  </si>
+  <si>
+    <t>53286.841</t>
+  </si>
+  <si>
+    <t>21.482</t>
+  </si>
+  <si>
+    <t>10.982</t>
+  </si>
+  <si>
+    <t>15.649</t>
+  </si>
+  <si>
+    <t>323.632</t>
+  </si>
+  <si>
+    <t>52735.721</t>
+  </si>
+  <si>
+    <t>21.331</t>
+  </si>
+  <si>
+    <t>10.831</t>
+  </si>
+  <si>
+    <t>15.492</t>
+  </si>
+  <si>
+    <t>323.481</t>
+  </si>
+  <si>
+    <t>52205.818</t>
+  </si>
+  <si>
+    <t>21.179</t>
+  </si>
+  <si>
+    <t>10.679</t>
+  </si>
+  <si>
+    <t>15.335</t>
+  </si>
+  <si>
+    <t>323.329</t>
+  </si>
+  <si>
+    <t>51675.915</t>
+  </si>
+  <si>
+    <t>21.022</t>
+  </si>
+  <si>
+    <t>10.522</t>
+  </si>
+  <si>
+    <t>15.171</t>
+  </si>
+  <si>
+    <t>323.172</t>
+  </si>
+  <si>
+    <t>51125.312</t>
+  </si>
+  <si>
+    <t>20.871</t>
+  </si>
+  <si>
+    <t>10.371</t>
+  </si>
+  <si>
+    <t>15.014</t>
+  </si>
+  <si>
+    <t>323.021</t>
+  </si>
+  <si>
+    <t>50595.409</t>
+  </si>
+  <si>
+    <t>20.720</t>
+  </si>
+  <si>
+    <t>10.220</t>
+  </si>
+  <si>
+    <t>14.857</t>
+  </si>
+  <si>
+    <t>322.870</t>
+  </si>
+  <si>
+    <t>50065.505</t>
+  </si>
+  <si>
+    <t>20.563</t>
+  </si>
+  <si>
+    <t>10.063</t>
+  </si>
+  <si>
+    <t>14.693</t>
+  </si>
+  <si>
+    <t>322.713</t>
+  </si>
+  <si>
+    <t>49514.385</t>
+  </si>
+  <si>
+    <t>20.413</t>
+  </si>
+  <si>
+    <t>9.913</t>
+  </si>
+  <si>
+    <t>14.536</t>
+  </si>
+  <si>
+    <t>322.563</t>
+  </si>
+  <si>
+    <t>48984.482</t>
+  </si>
+  <si>
+    <t>20.262</t>
+  </si>
+  <si>
+    <t>9.762</t>
+  </si>
+  <si>
+    <t>14.379</t>
+  </si>
+  <si>
+    <t>322.412</t>
+  </si>
+  <si>
+    <t>48454.579</t>
+  </si>
+  <si>
+    <t>20.106</t>
+  </si>
+  <si>
+    <t>9.606</t>
+  </si>
+  <si>
+    <t>14.215</t>
+  </si>
+  <si>
+    <t>322.256</t>
+  </si>
+  <si>
+    <t>47903.459</t>
+  </si>
+  <si>
+    <t>19.956</t>
+  </si>
+  <si>
+    <t>9.456</t>
+  </si>
+  <si>
+    <t>14.058</t>
+  </si>
+  <si>
+    <t>322.106</t>
+  </si>
+  <si>
+    <t>47373.556</t>
+  </si>
+  <si>
+    <t>19.800</t>
+  </si>
+  <si>
+    <t>9.300</t>
+  </si>
+  <si>
+    <t>13.895</t>
+  </si>
+  <si>
+    <t>321.950</t>
+  </si>
+  <si>
+    <t>46822.436</t>
+  </si>
+  <si>
+    <t>19.650</t>
+  </si>
+  <si>
+    <t>9.150</t>
+  </si>
+  <si>
+    <t>13.737</t>
+  </si>
+  <si>
+    <t>321.800</t>
+  </si>
+  <si>
+    <t>46292.532</t>
+  </si>
+  <si>
+    <t>19.500</t>
+  </si>
+  <si>
+    <t>9.00000000000000</t>
+  </si>
+  <si>
+    <t>13.580</t>
+  </si>
+  <si>
+    <t>321.650</t>
+  </si>
+  <si>
+    <t>45762.629</t>
+  </si>
+  <si>
+    <t>19.344</t>
+  </si>
+  <si>
+    <t>8.844</t>
+  </si>
+  <si>
+    <t>13.417</t>
+  </si>
+  <si>
+    <t>321.494</t>
+  </si>
+  <si>
+    <t>45211.509</t>
+  </si>
+  <si>
+    <t>19.195</t>
+  </si>
+  <si>
+    <t>8.695</t>
+  </si>
+  <si>
+    <t>13.259</t>
+  </si>
+  <si>
+    <t>321.345</t>
+  </si>
+  <si>
+    <t>44681.606</t>
+  </si>
+  <si>
+    <t>19.046</t>
+  </si>
+  <si>
+    <t>8.546</t>
+  </si>
+  <si>
+    <t>13.102</t>
+  </si>
+  <si>
+    <t>321.196</t>
+  </si>
+  <si>
+    <t>44151.703</t>
+  </si>
+  <si>
+    <t>18.891</t>
+  </si>
+  <si>
+    <t>8.391</t>
+  </si>
+  <si>
+    <t>12.938</t>
+  </si>
+  <si>
+    <t>321.041</t>
+  </si>
+  <si>
+    <t>43600.583</t>
+  </si>
+  <si>
+    <t>18.742</t>
+  </si>
+  <si>
+    <t>8.242</t>
+  </si>
+  <si>
+    <t>12.781</t>
+  </si>
+  <si>
+    <t>320.892</t>
+  </si>
+  <si>
+    <t>43070.679</t>
+  </si>
+  <si>
+    <t>18.594</t>
+  </si>
+  <si>
+    <t>8.094</t>
+  </si>
+  <si>
+    <t>12.624</t>
+  </si>
+  <si>
+    <t>320.744</t>
+  </si>
+  <si>
+    <t>42540.776</t>
   </si>
 </sst>
 </file>
@@ -730,22 +1296,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>51.00302281193046</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>12.9799999498898</v>
+        <v>12.97999995134464</v>
       </c>
       <c r="D6">
-        <v>213.5366338436386</v>
+        <v>213.5239929374293</v>
       </c>
       <c r="E6">
-        <v>0.7167677496205528</v>
+        <v>0.7167287527139546</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -753,16 +1319,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>51.02179632675762</v>
+        <v>51.01877303056222</v>
       </c>
       <c r="C7">
-        <v>249.9999999756146</v>
+        <v>249.9999999978752</v>
       </c>
       <c r="D7">
-        <v>213.8189850870335</v>
+        <v>213.806343784255</v>
       </c>
       <c r="E7">
-        <v>0.7168984005552965</v>
+        <v>0.716859404683688</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -977,4 +1543,932 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>192</v>
+      </c>
+      <c r="R2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S2" t="s">
+        <v>202</v>
+      </c>
+      <c r="T2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U2" t="s">
+        <v>212</v>
+      </c>
+      <c r="V2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R3" t="s">
+        <v>198</v>
+      </c>
+      <c r="S3" t="s">
+        <v>203</v>
+      </c>
+      <c r="T3" t="s">
+        <v>208</v>
+      </c>
+      <c r="U3" t="s">
+        <v>213</v>
+      </c>
+      <c r="V3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R4" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" t="s">
+        <v>204</v>
+      </c>
+      <c r="T4" t="s">
+        <v>209</v>
+      </c>
+      <c r="U4" t="s">
+        <v>214</v>
+      </c>
+      <c r="V4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>195</v>
+      </c>
+      <c r="R5" t="s">
+        <v>200</v>
+      </c>
+      <c r="S5" t="s">
+        <v>205</v>
+      </c>
+      <c r="T5" t="s">
+        <v>210</v>
+      </c>
+      <c r="U5" t="s">
+        <v>215</v>
+      </c>
+      <c r="V5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>196</v>
+      </c>
+      <c r="R6" t="s">
+        <v>201</v>
+      </c>
+      <c r="S6" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" t="s">
+        <v>211</v>
+      </c>
+      <c r="U6" t="s">
+        <v>216</v>
+      </c>
+      <c r="V6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>